--- a/ParkByeongHyeon/naver_DBSCAN_clusters.xlsx
+++ b/ParkByeongHyeon/naver_DBSCAN_clusters.xlsx
@@ -28,16 +28,16 @@
     <t>top_15_topics</t>
   </si>
   <si>
-    <t>['billboard.js', 'fixture-monkey', 'kapture-localization', 'egjs-view360', 'egjs-infinitegrid', 'fe-news', 'egjs-flicking', 'kapture', 'spring-jdbc-plus', 'zeplin-flutter-gen', 'egjs-list-differ', 'storybook-addon-preview', 'egjs-grid', 'egjs-imready', 'arcus-memcached', 'arcus', 'egjs-view3d', 'cover-checker', 'lispe', 'egjs-flicking-plugins', 'egjs-axes', 'auto-async-wrap', 'arcus-c-client', 'egjs-persist', 'arcus-java-client', 'arcus-spring', 'egjs']</t>
-  </si>
-  <si>
-    <t>['egjs-visible', 'prototype-minify', 'gdc', 'egjs-rotate', 'naveridlogin-sdk-android', 'android-imagecropview', 'claf', 'egjs-component', 'egjs-agent', 'smarteditor2', 'egjs-children-differ', 'cgd', 'hubblemon', 'isometrizer', 'image-sprite-webpack-plugin', 'ai-hackathon', 'eslint-config-naver', 'react-sample-code', 'babel-plugin-no-side-effect-class-properties', 'rye', 'egjs-jquery-pauseresume', 'egjs-jquery-transform', 'attention-dialog-embedding', 'generator-egjs', 'egjs-jsdoc-template', 'gobench2xml']</t>
-  </si>
-  <si>
-    <t>[(' egjs', 10), ('react', 5), (' vue', 4), (' typescript', 4), (' video', 3), (' javascript', 3), ('javascript', 3), ('arcus', 3), ('localization', 2), (' structure-from-motion', 2), (' sfm', 2), (' image-retrieval', 2), (' r2d2', 2), (' colmap', 2), (' visual-localization', 2)]</t>
-  </si>
-  <si>
-    <t>[('javascript', 6), (' egjs', 6), (' typescript', 3), ('nlp', 3), (' webpack', 2), (' ast', 2), (' machine-learning', 2), (' ai', 2), ('android', 2), (' pytorch', 2), (' naver', 2), ('egjs', 1), (' visible', 1), ('plugin', 1), (' prototype', 1)]</t>
+    <t>['egjs-flicking', 'billboard.js', 'kapture-localization', 'kapture', 'arcus-memcached', 'fixture-monkey', 'egjs-view360', 'arcus-c-client', 'egjs-grid', 'egjs-infinitegrid', 'lispe', 'fe-news', 'spring-jdbc-plus', 'arcus', 'storybook-addon-preview', 'auto-async-wrap', 'egjs-imready', 'arcus-java-client', 'egjs-component', 'egjs-flicking-plugins', 'tldr', 'gdc', 'cog', 'zeplin-flutter-gen', 'egjs-list-differ', 'egjs-view3d', 'cover-checker', 'egjs-axes', 'egjs-persist']</t>
+  </si>
+  <si>
+    <t>['arcus-spring', 'egjs', 'egjs-visible', 'prototype-minify', 'egjs-rotate', 'naveridlogin-sdk-android', 'android-imagecropview', 'claf', 'egjs-agent', 'smarteditor2', 'egjs-children-differ', 'cgd', 'hubblemon', 'isometrizer', 'image-sprite-webpack-plugin', 'ai-hackathon', 'eslint-config-naver', 'react-sample-code', 'babel-plugin-no-side-effect-class-properties', 'rye', 'egjs-jquery-pauseresume', 'egjs-jquery-transform', 'attention-dialog-embedding', 'generator-egjs', 'egjs-jsdoc-template', 'gobench2xml']</t>
+  </si>
+  <si>
+    <t>[(' egjs', 10), ('react', 5), (' typescript', 5), (' vue', 4), (' javascript', 3), (' video', 3), ('javascript', 3), (' angular', 2), (' carousel', 2), ('localization', 2), (' structure-from-motion', 2), (' sfm', 2), (' image-retrieval', 2), (' r2d2', 2), (' colmap', 2)]</t>
+  </si>
+  <si>
+    <t>[('javascript', 6), (' egjs', 6), (' naver', 3), (' animation', 2), (' rotate', 2), (' visible', 2), (' typescript', 2), (' webpack', 2), (' ast', 2), ('android', 2), ('nlp', 2), (' pytorch', 2), ('arcus', 1), (' spring-cache', 1), (' arcus-spring', 1)]</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
